--- a/InterviewTest/output/230455/230455_failed.xlsx
+++ b/InterviewTest/output/230455/230455_failed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230455\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E6C810-E3A0-4046-8DC7-ED01B5E9BFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0072E1D4-40C0-4936-936E-7AE6519F2983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <t>null</t>
   </si>
   <si>
-    <t>Example:  VAN_CH: 0; ANH_CH: 0</t>
+    <t>Example:  VAN_CH: 7; ANH_CH: 5</t>
   </si>
   <si>
     <t>Fail</t>

--- a/InterviewTest/output/230455/230455_failed.xlsx
+++ b/InterviewTest/output/230455/230455_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230455\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230455\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0072E1D4-40C0-4936-936E-7AE6519F2983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1C4992-779E-4C22-8957-2CB752C2CA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="29970" yWindow="1170" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>39754</v>
+        <v>39489</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1" thickBot="1">

--- a/InterviewTest/output/230455/230455_failed.xlsx
+++ b/InterviewTest/output/230455/230455_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230455\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230455\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1C4992-779E-4C22-8957-2CB752C2CA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB3C48B-D7E8-47D7-8752-237321DBD844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="1170" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
